--- a/conditionAB_main.xlsx
+++ b/conditionAB_main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35DFD74-6B67-4706-83AE-4A581679EE78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29C957-8583-43D1-9EEA-BA93EADDB245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3E849F70-488D-4D0D-851D-734CAC3741CA}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,10 +516,12 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>0.19333400000000001</v>
+        <f>F2-0.00933333333</f>
+        <v>0.19066666667000001</v>
       </c>
       <c r="G3">
-        <v>4.6666700000000005E-2</v>
+        <f>G2-0.002</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H3">
         <v>0.48</v>
@@ -545,10 +547,12 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0.186668</v>
+        <f t="shared" ref="F4:F16" si="0">F3-0.00933333333</f>
+        <v>0.18133333334000001</v>
       </c>
       <c r="G4">
-        <v>4.3333400000000008E-2</v>
+        <f t="shared" ref="G4:G16" si="1">G3-0.002</f>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H4">
         <v>0.45999999999999996</v>
@@ -574,10 +578,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>0.180002</v>
+        <f t="shared" si="0"/>
+        <v>0.17200000001000001</v>
       </c>
       <c r="G5">
-        <v>4.0000100000000011E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H5">
         <v>0.43999999999999995</v>
@@ -603,10 +609,12 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>0.17333599999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.16266666668000002</v>
       </c>
       <c r="G6">
-        <v>3.6666800000000013E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1999999999999996E-2</v>
       </c>
       <c r="H6">
         <v>0.41999999999999993</v>
@@ -632,10 +640,12 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>0.16666999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.15333333335000002</v>
       </c>
       <c r="G7">
-        <v>3.3333500000000016E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="H7">
         <v>0.39999999999999991</v>
@@ -661,10 +671,12 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.16000399999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.14400000002000002</v>
       </c>
       <c r="G8">
-        <v>3.0000200000000015E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7999999999999992E-2</v>
       </c>
       <c r="H8">
         <v>0.37999999999999989</v>
@@ -690,10 +702,12 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>0.15333799999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.13466666669000002</v>
       </c>
       <c r="G9">
-        <v>2.6666900000000014E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.599999999999999E-2</v>
       </c>
       <c r="H9">
         <v>0.35999999999999988</v>
@@ -719,10 +733,12 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>0.14667199999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.12533333336000002</v>
       </c>
       <c r="G10">
-        <v>2.3333600000000013E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.3999999999999989E-2</v>
       </c>
       <c r="H10">
         <v>0.33999999999999986</v>
@@ -748,10 +764,12 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>0.14000599999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.11600000003000002</v>
       </c>
       <c r="G11">
-        <v>2.0000300000000013E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1999999999999987E-2</v>
       </c>
       <c r="H11">
         <v>0.31999999999999984</v>
@@ -777,10 +795,12 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>0.13333999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.10666666670000002</v>
       </c>
       <c r="G12">
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>2.9999999999999985E-2</v>
       </c>
       <c r="H12">
         <v>0.29999999999999982</v>
@@ -806,13 +826,15 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>0.12667399999999995</v>
+        <f t="shared" si="0"/>
+        <v>9.7333333370000025E-2</v>
       </c>
       <c r="G13">
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>2.7999999999999983E-2</v>
       </c>
       <c r="H13">
-        <v>0.2799999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -835,13 +857,15 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>0.12000799999999995</v>
+        <f t="shared" si="0"/>
+        <v>8.8000000040000026E-2</v>
       </c>
       <c r="G14">
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>2.5999999999999981E-2</v>
       </c>
       <c r="H14">
-        <v>0.25999999999999979</v>
+        <v>0.3</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -864,13 +888,15 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0.11334199999999994</v>
+        <f t="shared" si="0"/>
+        <v>7.8666666710000027E-2</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>2.399999999999998E-2</v>
       </c>
       <c r="H15">
-        <v>0.2399999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -893,13 +919,15 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <v>0.10667599999999994</v>
+        <f t="shared" si="0"/>
+        <v>6.9333333380000028E-2</v>
       </c>
       <c r="G16">
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>2.1999999999999978E-2</v>
       </c>
       <c r="H16">
-        <v>0.21999999999999981</v>
+        <v>0.3</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -922,13 +950,14 @@
         <v>11</v>
       </c>
       <c r="F17">
-        <v>0.1</v>
+        <f>F16-0.00933333333</f>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G17">
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -951,13 +980,14 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
+        <f>F17</f>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G18">
         <v>0.02</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -980,13 +1010,14 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <f t="shared" ref="F19:F82" si="2">F18</f>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G19">
         <v>0.02</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1009,13 +1040,14 @@
         <v>7</v>
       </c>
       <c r="F20">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G20">
         <v>0.02</v>
       </c>
       <c r="H20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -1038,13 +1070,14 @@
         <v>7</v>
       </c>
       <c r="F21">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G21">
         <v>0.02</v>
       </c>
       <c r="H21">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -1067,13 +1100,14 @@
         <v>7</v>
       </c>
       <c r="F22">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G22">
         <v>0.02</v>
       </c>
       <c r="H22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1096,13 +1130,14 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G23">
         <v>0.02</v>
       </c>
       <c r="H23">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1125,13 +1160,14 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G24">
         <v>0.02</v>
       </c>
       <c r="H24">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -1154,13 +1190,14 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G25">
         <v>0.02</v>
       </c>
       <c r="H25">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -1183,13 +1220,14 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G26">
         <v>0.02</v>
       </c>
       <c r="H26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1212,13 +1250,14 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G27">
         <v>0.02</v>
       </c>
       <c r="H27">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1241,13 +1280,14 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G28">
         <v>0.02</v>
       </c>
       <c r="H28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1270,13 +1310,14 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G29">
         <v>0.02</v>
       </c>
       <c r="H29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1299,13 +1340,14 @@
         <v>9</v>
       </c>
       <c r="F30">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G30">
         <v>0.02</v>
       </c>
       <c r="H30">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1328,13 +1370,14 @@
         <v>7</v>
       </c>
       <c r="F31">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G31">
         <v>0.02</v>
       </c>
       <c r="H31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -1357,13 +1400,14 @@
         <v>5</v>
       </c>
       <c r="F32">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G32">
         <v>0.02</v>
       </c>
       <c r="H32">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1386,13 +1430,14 @@
         <v>9</v>
       </c>
       <c r="F33">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G33">
         <v>0.02</v>
       </c>
       <c r="H33">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -1415,13 +1460,14 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G34">
         <v>0.02</v>
       </c>
       <c r="H34">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -1444,13 +1490,14 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G35">
         <v>0.02</v>
       </c>
       <c r="H35">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -1473,13 +1520,14 @@
         <v>9</v>
       </c>
       <c r="F36">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G36">
         <v>0.02</v>
       </c>
       <c r="H36">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -1502,13 +1550,14 @@
         <v>12</v>
       </c>
       <c r="F37">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G37">
         <v>0.02</v>
       </c>
       <c r="H37">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -1531,13 +1580,14 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G38">
         <v>0.02</v>
       </c>
       <c r="H38">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -1560,13 +1610,14 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G39">
         <v>0.02</v>
       </c>
       <c r="H39">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -1589,13 +1640,14 @@
         <v>7</v>
       </c>
       <c r="F40">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G40">
         <v>0.02</v>
       </c>
       <c r="H40">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
@@ -1618,13 +1670,14 @@
         <v>8</v>
       </c>
       <c r="F41">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G41">
         <v>0.02</v>
       </c>
       <c r="H41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -1647,13 +1700,14 @@
         <v>6</v>
       </c>
       <c r="F42">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G42">
         <v>0.02</v>
       </c>
       <c r="H42">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -1676,13 +1730,14 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G43">
         <v>0.02</v>
       </c>
       <c r="H43">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -1705,13 +1760,14 @@
         <v>11</v>
       </c>
       <c r="F44">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G44">
         <v>0.02</v>
       </c>
       <c r="H44">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
@@ -1734,13 +1790,14 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G45">
         <v>0.02</v>
       </c>
       <c r="H45">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I45" t="s">
         <v>18</v>
@@ -1763,13 +1820,14 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G46">
         <v>0.02</v>
       </c>
       <c r="H46">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -1792,13 +1850,14 @@
         <v>7</v>
       </c>
       <c r="F47">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G47">
         <v>0.02</v>
       </c>
       <c r="H47">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
@@ -1821,13 +1880,14 @@
         <v>7</v>
       </c>
       <c r="F48">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G48">
         <v>0.02</v>
       </c>
       <c r="H48">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -1850,13 +1910,14 @@
         <v>11</v>
       </c>
       <c r="F49">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G49">
         <v>0.02</v>
       </c>
       <c r="H49">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -1879,13 +1940,14 @@
         <v>5</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G50">
         <v>0.02</v>
       </c>
       <c r="H50">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
@@ -1908,13 +1970,14 @@
         <v>7</v>
       </c>
       <c r="F51">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G51">
         <v>0.02</v>
       </c>
       <c r="H51">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
@@ -1937,13 +2000,14 @@
         <v>7</v>
       </c>
       <c r="F52">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G52">
         <v>0.02</v>
       </c>
       <c r="H52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
@@ -1966,13 +2030,14 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G53">
         <v>0.02</v>
       </c>
       <c r="H53">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -1995,13 +2060,14 @@
         <v>6</v>
       </c>
       <c r="F54">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G54">
         <v>0.02</v>
       </c>
       <c r="H54">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
@@ -2024,13 +2090,14 @@
         <v>8</v>
       </c>
       <c r="F55">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G55">
         <v>0.02</v>
       </c>
       <c r="H55">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
@@ -2053,13 +2120,14 @@
         <v>11</v>
       </c>
       <c r="F56">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G56">
         <v>0.02</v>
       </c>
       <c r="H56">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
@@ -2082,13 +2150,14 @@
         <v>6</v>
       </c>
       <c r="F57">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G57">
         <v>0.02</v>
       </c>
       <c r="H57">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I57" t="s">
         <v>18</v>
@@ -2111,13 +2180,14 @@
         <v>9</v>
       </c>
       <c r="F58">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G58">
         <v>0.02</v>
       </c>
       <c r="H58">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
@@ -2140,13 +2210,14 @@
         <v>5</v>
       </c>
       <c r="F59">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G59">
         <v>0.02</v>
       </c>
       <c r="H59">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
@@ -2169,13 +2240,14 @@
         <v>11</v>
       </c>
       <c r="F60">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G60">
         <v>0.02</v>
       </c>
       <c r="H60">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
@@ -2198,13 +2270,14 @@
         <v>11</v>
       </c>
       <c r="F61">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G61">
         <v>0.02</v>
       </c>
       <c r="H61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
@@ -2227,13 +2300,14 @@
         <v>8</v>
       </c>
       <c r="F62">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G62">
         <v>0.02</v>
       </c>
       <c r="H62">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I62" t="s">
         <v>18</v>
@@ -2256,13 +2330,14 @@
         <v>8</v>
       </c>
       <c r="F63">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G63">
         <v>0.02</v>
       </c>
       <c r="H63">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
@@ -2285,13 +2360,14 @@
         <v>9</v>
       </c>
       <c r="F64">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G64">
         <v>0.02</v>
       </c>
       <c r="H64">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I64" t="s">
         <v>18</v>
@@ -2314,13 +2390,14 @@
         <v>4</v>
       </c>
       <c r="F65">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G65">
         <v>0.02</v>
       </c>
       <c r="H65">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I65" t="s">
         <v>18</v>
@@ -2343,13 +2420,14 @@
         <v>9</v>
       </c>
       <c r="F66">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G66">
         <v>0.02</v>
       </c>
       <c r="H66">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I66" t="s">
         <v>18</v>
@@ -2372,13 +2450,14 @@
         <v>7</v>
       </c>
       <c r="F67">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G67">
         <v>0.02</v>
       </c>
       <c r="H67">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
@@ -2401,13 +2480,14 @@
         <v>10</v>
       </c>
       <c r="F68">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G68">
         <v>0.02</v>
       </c>
       <c r="H68">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I68" t="s">
         <v>18</v>
@@ -2430,13 +2510,14 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G69">
         <v>0.02</v>
       </c>
       <c r="H69">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I69" t="s">
         <v>18</v>
@@ -2459,13 +2540,14 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G70">
         <v>0.02</v>
       </c>
       <c r="H70">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I70" t="s">
         <v>18</v>
@@ -2488,13 +2570,14 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G71">
         <v>0.02</v>
       </c>
       <c r="H71">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I71" t="s">
         <v>18</v>
@@ -2517,13 +2600,14 @@
         <v>8</v>
       </c>
       <c r="F72">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G72">
         <v>0.02</v>
       </c>
       <c r="H72">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I72" t="s">
         <v>18</v>
@@ -2546,13 +2630,14 @@
         <v>7</v>
       </c>
       <c r="F73">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G73">
         <v>0.02</v>
       </c>
       <c r="H73">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I73" t="s">
         <v>18</v>
@@ -2575,13 +2660,14 @@
         <v>4</v>
       </c>
       <c r="F74">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G74">
         <v>0.02</v>
       </c>
       <c r="H74">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I74" t="s">
         <v>18</v>
@@ -2604,13 +2690,14 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G75">
         <v>0.02</v>
       </c>
       <c r="H75">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I75" t="s">
         <v>18</v>
@@ -2633,13 +2720,14 @@
         <v>10</v>
       </c>
       <c r="F76">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G76">
         <v>0.02</v>
       </c>
       <c r="H76">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I76" t="s">
         <v>18</v>
@@ -2662,13 +2750,14 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G77">
         <v>0.02</v>
       </c>
       <c r="H77">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I77" t="s">
         <v>18</v>
@@ -2691,13 +2780,14 @@
         <v>10</v>
       </c>
       <c r="F78">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G78">
         <v>0.02</v>
       </c>
       <c r="H78">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I78" t="s">
         <v>18</v>
@@ -2720,13 +2810,14 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G79">
         <v>0.02</v>
       </c>
       <c r="H79">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I79" t="s">
         <v>18</v>
@@ -2749,13 +2840,14 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G80">
         <v>0.02</v>
       </c>
       <c r="H80">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I80" t="s">
         <v>18</v>
@@ -2778,13 +2870,14 @@
         <v>8</v>
       </c>
       <c r="F81">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G81">
         <v>0.02</v>
       </c>
       <c r="H81">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I81" t="s">
         <v>18</v>
@@ -2807,13 +2900,14 @@
         <v>9</v>
       </c>
       <c r="F82">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G82">
         <v>0.02</v>
       </c>
       <c r="H82">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I82" t="s">
         <v>18</v>
@@ -2836,13 +2930,14 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>0.1</v>
+        <f t="shared" ref="F83:F146" si="3">F82</f>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G83">
         <v>0.02</v>
       </c>
       <c r="H83">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I83" t="s">
         <v>18</v>
@@ -2865,13 +2960,14 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G84">
         <v>0.02</v>
       </c>
       <c r="H84">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I84" t="s">
         <v>18</v>
@@ -2894,13 +2990,14 @@
         <v>4</v>
       </c>
       <c r="F85">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G85">
         <v>0.02</v>
       </c>
       <c r="H85">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I85" t="s">
         <v>18</v>
@@ -2923,13 +3020,14 @@
         <v>5</v>
       </c>
       <c r="F86">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G86">
         <v>0.02</v>
       </c>
       <c r="H86">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I86" t="s">
         <v>18</v>
@@ -2952,13 +3050,14 @@
         <v>5</v>
       </c>
       <c r="F87">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G87">
         <v>0.02</v>
       </c>
       <c r="H87">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I87" t="s">
         <v>18</v>
@@ -2981,13 +3080,14 @@
         <v>9</v>
       </c>
       <c r="F88">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G88">
         <v>0.02</v>
       </c>
       <c r="H88">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I88" t="s">
         <v>18</v>
@@ -3010,13 +3110,14 @@
         <v>11</v>
       </c>
       <c r="F89">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G89">
         <v>0.02</v>
       </c>
       <c r="H89">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I89" t="s">
         <v>18</v>
@@ -3039,13 +3140,14 @@
         <v>7</v>
       </c>
       <c r="F90">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G90">
         <v>0.02</v>
       </c>
       <c r="H90">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I90" t="s">
         <v>18</v>
@@ -3068,13 +3170,14 @@
         <v>10</v>
       </c>
       <c r="F91">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G91">
         <v>0.02</v>
       </c>
       <c r="H91">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I91" t="s">
         <v>18</v>
@@ -3097,13 +3200,14 @@
         <v>6</v>
       </c>
       <c r="F92">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G92">
         <v>0.02</v>
       </c>
       <c r="H92">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I92" t="s">
         <v>18</v>
@@ -3126,13 +3230,14 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G93">
         <v>0.02</v>
       </c>
       <c r="H93">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I93" t="s">
         <v>18</v>
@@ -3155,13 +3260,14 @@
         <v>8</v>
       </c>
       <c r="F94">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G94">
         <v>0.02</v>
       </c>
       <c r="H94">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I94" t="s">
         <v>18</v>
@@ -3184,13 +3290,14 @@
         <v>11</v>
       </c>
       <c r="F95">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G95">
         <v>0.02</v>
       </c>
       <c r="H95">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I95" t="s">
         <v>18</v>
@@ -3213,13 +3320,14 @@
         <v>6</v>
       </c>
       <c r="F96">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G96">
         <v>0.02</v>
       </c>
       <c r="H96">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I96" t="s">
         <v>18</v>
@@ -3242,13 +3350,14 @@
         <v>9</v>
       </c>
       <c r="F97">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G97">
         <v>0.02</v>
       </c>
       <c r="H97">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I97" t="s">
         <v>18</v>
@@ -3271,13 +3380,14 @@
         <v>7</v>
       </c>
       <c r="F98">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G98">
         <v>0.02</v>
       </c>
       <c r="H98">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I98" t="s">
         <v>18</v>
@@ -3300,13 +3410,14 @@
         <v>9</v>
       </c>
       <c r="F99">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G99">
         <v>0.02</v>
       </c>
       <c r="H99">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I99" t="s">
         <v>18</v>
@@ -3329,13 +3440,14 @@
         <v>6</v>
       </c>
       <c r="F100">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G100">
         <v>0.02</v>
       </c>
       <c r="H100">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I100" t="s">
         <v>18</v>
@@ -3358,13 +3470,14 @@
         <v>4</v>
       </c>
       <c r="F101">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G101">
         <v>0.02</v>
       </c>
       <c r="H101">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I101" t="s">
         <v>18</v>
@@ -3387,13 +3500,14 @@
         <v>6</v>
       </c>
       <c r="F102">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G102">
         <v>0.02</v>
       </c>
       <c r="H102">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I102" t="s">
         <v>18</v>
@@ -3416,13 +3530,14 @@
         <v>8</v>
       </c>
       <c r="F103">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G103">
         <v>0.02</v>
       </c>
       <c r="H103">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I103" t="s">
         <v>18</v>
@@ -3445,13 +3560,14 @@
         <v>8</v>
       </c>
       <c r="F104">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G104">
         <v>0.02</v>
       </c>
       <c r="H104">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I104" t="s">
         <v>18</v>
@@ -3474,13 +3590,14 @@
         <v>11</v>
       </c>
       <c r="F105">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G105">
         <v>0.02</v>
       </c>
       <c r="H105">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I105" t="s">
         <v>18</v>
@@ -3503,13 +3620,14 @@
         <v>10</v>
       </c>
       <c r="F106">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G106">
         <v>0.02</v>
       </c>
       <c r="H106">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I106" t="s">
         <v>18</v>
@@ -3532,13 +3650,14 @@
         <v>8</v>
       </c>
       <c r="F107">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G107">
         <v>0.02</v>
       </c>
       <c r="H107">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I107" t="s">
         <v>18</v>
@@ -3561,13 +3680,14 @@
         <v>7</v>
       </c>
       <c r="F108">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G108">
         <v>0.02</v>
       </c>
       <c r="H108">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I108" t="s">
         <v>18</v>
@@ -3590,13 +3710,14 @@
         <v>4</v>
       </c>
       <c r="F109">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G109">
         <v>0.02</v>
       </c>
       <c r="H109">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I109" t="s">
         <v>18</v>
@@ -3619,13 +3740,14 @@
         <v>7</v>
       </c>
       <c r="F110">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G110">
         <v>0.02</v>
       </c>
       <c r="H110">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I110" t="s">
         <v>18</v>
@@ -3648,13 +3770,14 @@
         <v>8</v>
       </c>
       <c r="F111">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G111">
         <v>0.02</v>
       </c>
       <c r="H111">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I111" t="s">
         <v>18</v>
@@ -3677,13 +3800,14 @@
         <v>7</v>
       </c>
       <c r="F112">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G112">
         <v>0.02</v>
       </c>
       <c r="H112">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I112" t="s">
         <v>18</v>
@@ -3706,13 +3830,14 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G113">
         <v>0.02</v>
       </c>
       <c r="H113">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I113" t="s">
         <v>18</v>
@@ -3735,13 +3860,14 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G114">
         <v>0.02</v>
       </c>
       <c r="H114">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I114" t="s">
         <v>18</v>
@@ -3764,13 +3890,14 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G115">
         <v>0.02</v>
       </c>
       <c r="H115">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I115" t="s">
         <v>18</v>
@@ -3793,13 +3920,14 @@
         <v>7</v>
       </c>
       <c r="F116">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G116">
         <v>0.02</v>
       </c>
       <c r="H116">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I116" t="s">
         <v>18</v>
@@ -3822,13 +3950,14 @@
         <v>6</v>
       </c>
       <c r="F117">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G117">
         <v>0.02</v>
       </c>
       <c r="H117">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I117" t="s">
         <v>18</v>
@@ -3851,13 +3980,14 @@
         <v>10</v>
       </c>
       <c r="F118">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G118">
         <v>0.02</v>
       </c>
       <c r="H118">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I118" t="s">
         <v>18</v>
@@ -3880,13 +4010,14 @@
         <v>8</v>
       </c>
       <c r="F119">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G119">
         <v>0.02</v>
       </c>
       <c r="H119">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I119" t="s">
         <v>18</v>
@@ -3909,13 +4040,14 @@
         <v>7</v>
       </c>
       <c r="F120">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G120">
         <v>0.02</v>
       </c>
       <c r="H120">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I120" t="s">
         <v>18</v>
@@ -3938,13 +4070,14 @@
         <v>11</v>
       </c>
       <c r="F121">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G121">
         <v>0.02</v>
       </c>
       <c r="H121">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I121" t="s">
         <v>18</v>
@@ -3967,13 +4100,14 @@
         <v>11</v>
       </c>
       <c r="F122">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G122">
         <v>0.02</v>
       </c>
       <c r="H122">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I122" t="s">
         <v>18</v>
@@ -3996,13 +4130,14 @@
         <v>6</v>
       </c>
       <c r="F123">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G123">
         <v>0.02</v>
       </c>
       <c r="H123">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I123" t="s">
         <v>18</v>
@@ -4025,13 +4160,14 @@
         <v>8</v>
       </c>
       <c r="F124">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G124">
         <v>0.02</v>
       </c>
       <c r="H124">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I124" t="s">
         <v>18</v>
@@ -4054,13 +4190,14 @@
         <v>7</v>
       </c>
       <c r="F125">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G125">
         <v>0.02</v>
       </c>
       <c r="H125">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I125" t="s">
         <v>18</v>
@@ -4083,13 +4220,14 @@
         <v>7</v>
       </c>
       <c r="F126">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G126">
         <v>0.02</v>
       </c>
       <c r="H126">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I126" t="s">
         <v>18</v>
@@ -4112,13 +4250,14 @@
         <v>7</v>
       </c>
       <c r="F127">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G127">
         <v>0.02</v>
       </c>
       <c r="H127">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I127" t="s">
         <v>18</v>
@@ -4141,13 +4280,14 @@
         <v>12</v>
       </c>
       <c r="F128">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G128">
         <v>0.02</v>
       </c>
       <c r="H128">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I128" t="s">
         <v>18</v>
@@ -4170,13 +4310,14 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G129">
         <v>0.02</v>
       </c>
       <c r="H129">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I129" t="s">
         <v>18</v>
@@ -4199,13 +4340,14 @@
         <v>12</v>
       </c>
       <c r="F130">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G130">
         <v>0.02</v>
       </c>
       <c r="H130">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I130" t="s">
         <v>18</v>
@@ -4228,13 +4370,14 @@
         <v>8</v>
       </c>
       <c r="F131">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G131">
         <v>0.02</v>
       </c>
       <c r="H131">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I131" t="s">
         <v>18</v>
@@ -4257,13 +4400,14 @@
         <v>6</v>
       </c>
       <c r="F132">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G132">
         <v>0.02</v>
       </c>
       <c r="H132">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
@@ -4286,13 +4430,14 @@
         <v>5</v>
       </c>
       <c r="F133">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G133">
         <v>0.02</v>
       </c>
       <c r="H133">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
@@ -4315,13 +4460,14 @@
         <v>6</v>
       </c>
       <c r="F134">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G134">
         <v>0.02</v>
       </c>
       <c r="H134">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I134" t="s">
         <v>18</v>
@@ -4344,13 +4490,14 @@
         <v>9</v>
       </c>
       <c r="F135">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G135">
         <v>0.02</v>
       </c>
       <c r="H135">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I135" t="s">
         <v>18</v>
@@ -4373,13 +4520,14 @@
         <v>7</v>
       </c>
       <c r="F136">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G136">
         <v>0.02</v>
       </c>
       <c r="H136">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I136" t="s">
         <v>18</v>
@@ -4402,13 +4550,14 @@
         <v>5</v>
       </c>
       <c r="F137">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G137">
         <v>0.02</v>
       </c>
       <c r="H137">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I137" t="s">
         <v>18</v>
@@ -4431,13 +4580,14 @@
         <v>9</v>
       </c>
       <c r="F138">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G138">
         <v>0.02</v>
       </c>
       <c r="H138">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I138" t="s">
         <v>18</v>
@@ -4460,13 +4610,14 @@
         <v>9</v>
       </c>
       <c r="F139">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G139">
         <v>0.02</v>
       </c>
       <c r="H139">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I139" t="s">
         <v>18</v>
@@ -4489,13 +4640,14 @@
         <v>5</v>
       </c>
       <c r="F140">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G140">
         <v>0.02</v>
       </c>
       <c r="H140">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I140" t="s">
         <v>18</v>
@@ -4518,13 +4670,14 @@
         <v>9</v>
       </c>
       <c r="F141">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G141">
         <v>0.02</v>
       </c>
       <c r="H141">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I141" t="s">
         <v>18</v>
@@ -4547,13 +4700,14 @@
         <v>12</v>
       </c>
       <c r="F142">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G142">
         <v>0.02</v>
       </c>
       <c r="H142">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I142" t="s">
         <v>18</v>
@@ -4576,13 +4730,14 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G143">
         <v>0.02</v>
       </c>
       <c r="H143">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I143" t="s">
         <v>18</v>
@@ -4605,13 +4760,14 @@
         <v>10</v>
       </c>
       <c r="F144">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G144">
         <v>0.02</v>
       </c>
       <c r="H144">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I144" t="s">
         <v>18</v>
@@ -4634,13 +4790,14 @@
         <v>7</v>
       </c>
       <c r="F145">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G145">
         <v>0.02</v>
       </c>
       <c r="H145">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I145" t="s">
         <v>18</v>
@@ -4663,13 +4820,14 @@
         <v>8</v>
       </c>
       <c r="F146">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G146">
         <v>0.02</v>
       </c>
       <c r="H146">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I146" t="s">
         <v>18</v>
@@ -4692,13 +4850,14 @@
         <v>6</v>
       </c>
       <c r="F147">
-        <v>0.1</v>
+        <f t="shared" ref="F147:F210" si="4">F146</f>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G147">
         <v>0.02</v>
       </c>
       <c r="H147">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I147" t="s">
         <v>18</v>
@@ -4721,13 +4880,14 @@
         <v>5</v>
       </c>
       <c r="F148">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G148">
         <v>0.02</v>
       </c>
       <c r="H148">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I148" t="s">
         <v>18</v>
@@ -4750,13 +4910,14 @@
         <v>11</v>
       </c>
       <c r="F149">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G149">
         <v>0.02</v>
       </c>
       <c r="H149">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I149" t="s">
         <v>18</v>
@@ -4779,13 +4940,14 @@
         <v>10</v>
       </c>
       <c r="F150">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G150">
         <v>0.02</v>
       </c>
       <c r="H150">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I150" t="s">
         <v>18</v>
@@ -4808,13 +4970,14 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G151">
         <v>0.02</v>
       </c>
       <c r="H151">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I151" t="s">
         <v>18</v>
@@ -4837,13 +5000,14 @@
         <v>7</v>
       </c>
       <c r="F152">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G152">
         <v>0.02</v>
       </c>
       <c r="H152">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I152" t="s">
         <v>18</v>
@@ -4866,13 +5030,14 @@
         <v>7</v>
       </c>
       <c r="F153">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G153">
         <v>0.02</v>
       </c>
       <c r="H153">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I153" t="s">
         <v>18</v>
@@ -4895,13 +5060,14 @@
         <v>11</v>
       </c>
       <c r="F154">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G154">
         <v>0.02</v>
       </c>
       <c r="H154">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I154" t="s">
         <v>18</v>
@@ -4924,13 +5090,14 @@
         <v>5</v>
       </c>
       <c r="F155">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G155">
         <v>0.02</v>
       </c>
       <c r="H155">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I155" t="s">
         <v>18</v>
@@ -4953,13 +5120,14 @@
         <v>7</v>
       </c>
       <c r="F156">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G156">
         <v>0.02</v>
       </c>
       <c r="H156">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I156" t="s">
         <v>18</v>
@@ -4982,13 +5150,14 @@
         <v>7</v>
       </c>
       <c r="F157">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G157">
         <v>0.02</v>
       </c>
       <c r="H157">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I157" t="s">
         <v>18</v>
@@ -5011,13 +5180,14 @@
         <v>12</v>
       </c>
       <c r="F158">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G158">
         <v>0.02</v>
       </c>
       <c r="H158">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I158" t="s">
         <v>18</v>
@@ -5040,13 +5210,14 @@
         <v>6</v>
       </c>
       <c r="F159">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G159">
         <v>0.02</v>
       </c>
       <c r="H159">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I159" t="s">
         <v>18</v>
@@ -5069,13 +5240,14 @@
         <v>8</v>
       </c>
       <c r="F160">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G160">
         <v>0.02</v>
       </c>
       <c r="H160">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I160" t="s">
         <v>18</v>
@@ -5098,13 +5270,14 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G161">
         <v>0.02</v>
       </c>
       <c r="H161">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I161" t="s">
         <v>18</v>
@@ -5127,13 +5300,14 @@
         <v>6</v>
       </c>
       <c r="F162">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G162">
         <v>0.02</v>
       </c>
       <c r="H162">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I162" t="s">
         <v>18</v>
@@ -5156,13 +5330,14 @@
         <v>9</v>
       </c>
       <c r="F163">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G163">
         <v>0.02</v>
       </c>
       <c r="H163">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I163" t="s">
         <v>18</v>
@@ -5185,13 +5360,14 @@
         <v>5</v>
       </c>
       <c r="F164">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G164">
         <v>0.02</v>
       </c>
       <c r="H164">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I164" t="s">
         <v>18</v>
@@ -5214,13 +5390,14 @@
         <v>11</v>
       </c>
       <c r="F165">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G165">
         <v>0.02</v>
       </c>
       <c r="H165">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I165" t="s">
         <v>18</v>
@@ -5243,13 +5420,14 @@
         <v>11</v>
       </c>
       <c r="F166">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G166">
         <v>0.02</v>
       </c>
       <c r="H166">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I166" t="s">
         <v>18</v>
@@ -5272,13 +5450,14 @@
         <v>8</v>
       </c>
       <c r="F167">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G167">
         <v>0.02</v>
       </c>
       <c r="H167">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I167" t="s">
         <v>18</v>
@@ -5301,13 +5480,14 @@
         <v>8</v>
       </c>
       <c r="F168">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G168">
         <v>0.02</v>
       </c>
       <c r="H168">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I168" t="s">
         <v>18</v>
@@ -5330,13 +5510,14 @@
         <v>9</v>
       </c>
       <c r="F169">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G169">
         <v>0.02</v>
       </c>
       <c r="H169">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I169" t="s">
         <v>18</v>
@@ -5359,13 +5540,14 @@
         <v>4</v>
       </c>
       <c r="F170">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G170">
         <v>0.02</v>
       </c>
       <c r="H170">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I170" t="s">
         <v>18</v>
@@ -5388,13 +5570,14 @@
         <v>9</v>
       </c>
       <c r="F171">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G171">
         <v>0.02</v>
       </c>
       <c r="H171">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I171" t="s">
         <v>18</v>
@@ -5417,13 +5600,14 @@
         <v>7</v>
       </c>
       <c r="F172">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G172">
         <v>0.02</v>
       </c>
       <c r="H172">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I172" t="s">
         <v>18</v>
@@ -5446,13 +5630,14 @@
         <v>10</v>
       </c>
       <c r="F173">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G173">
         <v>0.02</v>
       </c>
       <c r="H173">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I173" t="s">
         <v>18</v>
@@ -5475,13 +5660,14 @@
         <v>5</v>
       </c>
       <c r="F174">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G174">
         <v>0.02</v>
       </c>
       <c r="H174">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I174" t="s">
         <v>18</v>
@@ -5504,13 +5690,14 @@
         <v>10</v>
       </c>
       <c r="F175">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G175">
         <v>0.02</v>
       </c>
       <c r="H175">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I175" t="s">
         <v>18</v>
@@ -5533,13 +5720,14 @@
         <v>5</v>
       </c>
       <c r="F176">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G176">
         <v>0.02</v>
       </c>
       <c r="H176">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I176" t="s">
         <v>18</v>
@@ -5562,13 +5750,14 @@
         <v>8</v>
       </c>
       <c r="F177">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G177">
         <v>0.02</v>
       </c>
       <c r="H177">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I177" t="s">
         <v>18</v>
@@ -5591,13 +5780,14 @@
         <v>7</v>
       </c>
       <c r="F178">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G178">
         <v>0.02</v>
       </c>
       <c r="H178">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I178" t="s">
         <v>18</v>
@@ -5620,13 +5810,14 @@
         <v>4</v>
       </c>
       <c r="F179">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G179">
         <v>0.02</v>
       </c>
       <c r="H179">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I179" t="s">
         <v>18</v>
@@ -5649,13 +5840,14 @@
         <v>5</v>
       </c>
       <c r="F180">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G180">
         <v>0.02</v>
       </c>
       <c r="H180">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I180" t="s">
         <v>18</v>
@@ -5678,13 +5870,14 @@
         <v>10</v>
       </c>
       <c r="F181">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G181">
         <v>0.02</v>
       </c>
       <c r="H181">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I181" t="s">
         <v>18</v>
@@ -5707,13 +5900,14 @@
         <v>10</v>
       </c>
       <c r="F182">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G182">
         <v>0.02</v>
       </c>
       <c r="H182">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I182" t="s">
         <v>18</v>
@@ -5736,13 +5930,14 @@
         <v>10</v>
       </c>
       <c r="F183">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G183">
         <v>0.02</v>
       </c>
       <c r="H183">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I183" t="s">
         <v>18</v>
@@ -5765,13 +5960,14 @@
         <v>7</v>
       </c>
       <c r="F184">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G184">
         <v>0.02</v>
       </c>
       <c r="H184">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I184" t="s">
         <v>18</v>
@@ -5794,13 +5990,14 @@
         <v>8</v>
       </c>
       <c r="F185">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G185">
         <v>0.02</v>
       </c>
       <c r="H185">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I185" t="s">
         <v>18</v>
@@ -5823,13 +6020,14 @@
         <v>8</v>
       </c>
       <c r="F186">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G186">
         <v>0.02</v>
       </c>
       <c r="H186">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I186" t="s">
         <v>18</v>
@@ -5852,13 +6050,14 @@
         <v>9</v>
       </c>
       <c r="F187">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G187">
         <v>0.02</v>
       </c>
       <c r="H187">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I187" t="s">
         <v>18</v>
@@ -5881,13 +6080,14 @@
         <v>8</v>
       </c>
       <c r="F188">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G188">
         <v>0.02</v>
       </c>
       <c r="H188">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I188" t="s">
         <v>18</v>
@@ -5910,13 +6110,14 @@
         <v>12</v>
       </c>
       <c r="F189">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G189">
         <v>0.02</v>
       </c>
       <c r="H189">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I189" t="s">
         <v>18</v>
@@ -5939,13 +6140,14 @@
         <v>4</v>
       </c>
       <c r="F190">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G190">
         <v>0.02</v>
       </c>
       <c r="H190">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I190" t="s">
         <v>18</v>
@@ -5968,13 +6170,14 @@
         <v>5</v>
       </c>
       <c r="F191">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G191">
         <v>0.02</v>
       </c>
       <c r="H191">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I191" t="s">
         <v>18</v>
@@ -5997,13 +6200,14 @@
         <v>5</v>
       </c>
       <c r="F192">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G192">
         <v>0.02</v>
       </c>
       <c r="H192">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I192" t="s">
         <v>18</v>
@@ -6026,13 +6230,14 @@
         <v>9</v>
       </c>
       <c r="F193">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G193">
         <v>0.02</v>
       </c>
       <c r="H193">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I193" t="s">
         <v>18</v>
@@ -6055,13 +6260,14 @@
         <v>11</v>
       </c>
       <c r="F194">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G194">
         <v>0.02</v>
       </c>
       <c r="H194">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I194" t="s">
         <v>18</v>
@@ -6084,13 +6290,14 @@
         <v>7</v>
       </c>
       <c r="F195">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G195">
         <v>0.02</v>
       </c>
       <c r="H195">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I195" t="s">
         <v>18</v>
@@ -6113,13 +6320,14 @@
         <v>10</v>
       </c>
       <c r="F196">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G196">
         <v>0.02</v>
       </c>
       <c r="H196">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I196" t="s">
         <v>18</v>
@@ -6142,13 +6350,14 @@
         <v>6</v>
       </c>
       <c r="F197">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G197">
         <v>0.02</v>
       </c>
       <c r="H197">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I197" t="s">
         <v>18</v>
@@ -6171,13 +6380,14 @@
         <v>5</v>
       </c>
       <c r="F198">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G198">
         <v>0.02</v>
       </c>
       <c r="H198">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I198" t="s">
         <v>18</v>
@@ -6200,13 +6410,14 @@
         <v>8</v>
       </c>
       <c r="F199">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G199">
         <v>0.02</v>
       </c>
       <c r="H199">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I199" t="s">
         <v>18</v>
@@ -6229,13 +6440,14 @@
         <v>11</v>
       </c>
       <c r="F200">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G200">
         <v>0.02</v>
       </c>
       <c r="H200">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I200" t="s">
         <v>18</v>
@@ -6258,13 +6470,14 @@
         <v>6</v>
       </c>
       <c r="F201">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G201">
         <v>0.02</v>
       </c>
       <c r="H201">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I201" t="s">
         <v>18</v>
@@ -6287,13 +6500,14 @@
         <v>9</v>
       </c>
       <c r="F202">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G202">
         <v>0.02</v>
       </c>
       <c r="H202">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I202" t="s">
         <v>18</v>
@@ -6316,13 +6530,14 @@
         <v>7</v>
       </c>
       <c r="F203">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G203">
         <v>0.02</v>
       </c>
       <c r="H203">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I203" t="s">
         <v>18</v>
@@ -6345,13 +6560,14 @@
         <v>9</v>
       </c>
       <c r="F204">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G204">
         <v>0.02</v>
       </c>
       <c r="H204">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I204" t="s">
         <v>18</v>
@@ -6374,13 +6590,14 @@
         <v>6</v>
       </c>
       <c r="F205">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G205">
         <v>0.02</v>
       </c>
       <c r="H205">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I205" t="s">
         <v>18</v>
@@ -6403,13 +6620,14 @@
         <v>4</v>
       </c>
       <c r="F206">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G206">
         <v>0.02</v>
       </c>
       <c r="H206">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I206" t="s">
         <v>18</v>
@@ -6432,13 +6650,14 @@
         <v>6</v>
       </c>
       <c r="F207">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G207">
         <v>0.02</v>
       </c>
       <c r="H207">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I207" t="s">
         <v>18</v>
@@ -6461,13 +6680,14 @@
         <v>8</v>
       </c>
       <c r="F208">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G208">
         <v>0.02</v>
       </c>
       <c r="H208">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I208" t="s">
         <v>18</v>
@@ -6490,13 +6710,14 @@
         <v>8</v>
       </c>
       <c r="F209">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G209">
         <v>0.02</v>
       </c>
       <c r="H209">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I209" t="s">
         <v>18</v>
@@ -6519,13 +6740,14 @@
         <v>11</v>
       </c>
       <c r="F210">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G210">
         <v>0.02</v>
       </c>
       <c r="H210">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I210" t="s">
         <v>18</v>
@@ -6548,13 +6770,14 @@
         <v>10</v>
       </c>
       <c r="F211">
-        <v>0.1</v>
+        <f t="shared" ref="F211:F233" si="5">F210</f>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G211">
         <v>0.02</v>
       </c>
       <c r="H211">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I211" t="s">
         <v>18</v>
@@ -6577,13 +6800,14 @@
         <v>8</v>
       </c>
       <c r="F212">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G212">
         <v>0.02</v>
       </c>
       <c r="H212">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I212" t="s">
         <v>18</v>
@@ -6606,13 +6830,14 @@
         <v>6</v>
       </c>
       <c r="F213">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G213">
         <v>0.02</v>
       </c>
       <c r="H213">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I213" t="s">
         <v>18</v>
@@ -6635,13 +6860,14 @@
         <v>4</v>
       </c>
       <c r="F214">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G214">
         <v>0.02</v>
       </c>
       <c r="H214">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I214" t="s">
         <v>18</v>
@@ -6664,13 +6890,14 @@
         <v>8</v>
       </c>
       <c r="F215">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G215">
         <v>0.02</v>
       </c>
       <c r="H215">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I215" t="s">
         <v>18</v>
@@ -6693,13 +6920,14 @@
         <v>9</v>
       </c>
       <c r="F216">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G216">
         <v>0.02</v>
       </c>
       <c r="H216">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I216" t="s">
         <v>18</v>
@@ -6722,13 +6950,14 @@
         <v>7</v>
       </c>
       <c r="F217">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G217">
         <v>0.02</v>
       </c>
       <c r="H217">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I217" t="s">
         <v>18</v>
@@ -6751,13 +6980,14 @@
         <v>12</v>
       </c>
       <c r="F218">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G218">
         <v>0.02</v>
       </c>
       <c r="H218">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I218" t="s">
         <v>18</v>
@@ -6780,13 +7010,14 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G219">
         <v>0.02</v>
       </c>
       <c r="H219">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I219" t="s">
         <v>18</v>
@@ -6809,13 +7040,14 @@
         <v>9</v>
       </c>
       <c r="F220">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G220">
         <v>0.02</v>
       </c>
       <c r="H220">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I220" t="s">
         <v>18</v>
@@ -6838,13 +7070,14 @@
         <v>6</v>
       </c>
       <c r="F221">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G221">
         <v>0.02</v>
       </c>
       <c r="H221">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I221" t="s">
         <v>18</v>
@@ -6867,13 +7100,14 @@
         <v>4</v>
       </c>
       <c r="F222">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G222">
         <v>0.02</v>
       </c>
       <c r="H222">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I222" t="s">
         <v>18</v>
@@ -6896,13 +7130,14 @@
         <v>8</v>
       </c>
       <c r="F223">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G223">
         <v>0.02</v>
       </c>
       <c r="H223">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I223" t="s">
         <v>18</v>
@@ -6925,13 +7160,14 @@
         <v>7</v>
       </c>
       <c r="F224">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G224">
         <v>0.02</v>
       </c>
       <c r="H224">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I224" t="s">
         <v>18</v>
@@ -6954,13 +7190,14 @@
         <v>7</v>
       </c>
       <c r="F225">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G225">
         <v>0.02</v>
       </c>
       <c r="H225">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I225" t="s">
         <v>18</v>
@@ -6983,13 +7220,14 @@
         <v>11</v>
       </c>
       <c r="F226">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G226">
         <v>0.02</v>
       </c>
       <c r="H226">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I226" t="s">
         <v>18</v>
@@ -7012,13 +7250,14 @@
         <v>7</v>
       </c>
       <c r="F227">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G227">
         <v>0.02</v>
       </c>
       <c r="H227">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I227" t="s">
         <v>18</v>
@@ -7041,13 +7280,14 @@
         <v>4</v>
       </c>
       <c r="F228">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G228">
         <v>0.02</v>
       </c>
       <c r="H228">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I228" t="s">
         <v>18</v>
@@ -7070,13 +7310,14 @@
         <v>7</v>
       </c>
       <c r="F229">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G229">
         <v>0.02</v>
       </c>
       <c r="H229">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I229" t="s">
         <v>18</v>
@@ -7099,13 +7340,14 @@
         <v>8</v>
       </c>
       <c r="F230">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G230">
         <v>0.02</v>
       </c>
       <c r="H230">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I230" t="s">
         <v>18</v>
@@ -7128,13 +7370,14 @@
         <v>7</v>
       </c>
       <c r="F231">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G231">
         <v>0.02</v>
       </c>
       <c r="H231">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I231" t="s">
         <v>18</v>
@@ -7157,13 +7400,14 @@
         <v>10</v>
       </c>
       <c r="F232">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G232">
         <v>0.02</v>
       </c>
       <c r="H232">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I232" t="s">
         <v>18</v>
@@ -7186,13 +7430,14 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>6.000000005000003E-2</v>
       </c>
       <c r="G233">
         <v>0.02</v>
       </c>
       <c r="H233">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I233" t="s">
         <v>18</v>

--- a/conditionAB_main.xlsx
+++ b/conditionAB_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29C957-8583-43D1-9EEA-BA93EADDB245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E204C399-BB1B-412C-90F3-9A47F7A72CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3E849F70-488D-4D0D-851D-734CAC3741CA}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,8 +520,8 @@
         <v>0.19066666667000001</v>
       </c>
       <c r="G3">
-        <f>G2-0.002</f>
-        <v>4.8000000000000001E-2</v>
+        <f>G2-0.003333</f>
+        <v>4.6667E-2</v>
       </c>
       <c r="H3">
         <v>0.48</v>
@@ -551,8 +551,8 @@
         <v>0.18133333334000001</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G16" si="1">G3-0.002</f>
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" ref="G4:G16" si="1">G3-0.003333</f>
+        <v>4.3333999999999998E-2</v>
       </c>
       <c r="H4">
         <v>0.45999999999999996</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>4.3999999999999997E-2</v>
+        <v>4.0000999999999995E-2</v>
       </c>
       <c r="H5">
         <v>0.43999999999999995</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>4.1999999999999996E-2</v>
+        <v>3.6667999999999992E-2</v>
       </c>
       <c r="H6">
         <v>0.41999999999999993</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>3.9999999999999994E-2</v>
+        <v>3.333499999999999E-2</v>
       </c>
       <c r="H7">
         <v>0.39999999999999991</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>3.7999999999999992E-2</v>
+        <v>3.000199999999999E-2</v>
       </c>
       <c r="H8">
         <v>0.37999999999999989</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>3.599999999999999E-2</v>
+        <v>2.6668999999999991E-2</v>
       </c>
       <c r="H9">
         <v>0.35999999999999988</v>
@@ -738,7 +738,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>3.3999999999999989E-2</v>
+        <v>2.3335999999999992E-2</v>
       </c>
       <c r="H10">
         <v>0.33999999999999986</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>3.1999999999999987E-2</v>
+        <v>2.0002999999999993E-2</v>
       </c>
       <c r="H11">
         <v>0.31999999999999984</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>2.9999999999999985E-2</v>
+        <v>1.6669999999999994E-2</v>
       </c>
       <c r="H12">
         <v>0.29999999999999982</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>2.7999999999999983E-2</v>
+        <v>1.3336999999999995E-2</v>
       </c>
       <c r="H13">
         <v>0.3</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>2.5999999999999981E-2</v>
+        <v>1.0003999999999996E-2</v>
       </c>
       <c r="H14">
         <v>0.3</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>2.399999999999998E-2</v>
+        <v>6.6709999999999955E-3</v>
       </c>
       <c r="H15">
         <v>0.3</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>2.1999999999999978E-2</v>
+        <v>3.3379999999999955E-3</v>
       </c>
       <c r="H16">
         <v>0.3</v>
@@ -954,7 +954,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G17">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0.3</v>
@@ -984,7 +984,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G18">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0.3</v>
@@ -1014,7 +1014,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0.3</v>
@@ -1044,7 +1044,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G20">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0.3</v>
@@ -1074,7 +1074,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G21">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0.3</v>
@@ -1104,7 +1104,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0.3</v>
@@ -1134,7 +1134,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G23">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0.3</v>
@@ -1164,7 +1164,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0.3</v>
@@ -1194,7 +1194,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0.3</v>
@@ -1224,7 +1224,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0.3</v>
@@ -1254,7 +1254,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G27">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0.3</v>
@@ -1284,7 +1284,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G28">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0.3</v>
@@ -1314,7 +1314,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0.3</v>
@@ -1344,7 +1344,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0.3</v>
@@ -1374,7 +1374,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0.3</v>
@@ -1404,7 +1404,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0.3</v>
@@ -1434,7 +1434,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G33">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0.3</v>
@@ -1464,7 +1464,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0.3</v>
@@ -1494,7 +1494,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0.3</v>
@@ -1524,7 +1524,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G36">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0.3</v>
@@ -1554,7 +1554,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G37">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0.3</v>
@@ -1584,7 +1584,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G38">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0.3</v>
@@ -1614,7 +1614,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0.3</v>
@@ -1644,7 +1644,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0.3</v>
@@ -1674,7 +1674,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0.3</v>
@@ -1704,7 +1704,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0.3</v>
@@ -1734,7 +1734,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0.3</v>
@@ -1764,7 +1764,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0.3</v>
@@ -1794,7 +1794,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G45">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0.3</v>
@@ -1824,7 +1824,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G46">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0.3</v>
@@ -1854,7 +1854,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G47">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0.3</v>
@@ -1884,7 +1884,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G48">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0.3</v>
@@ -1914,7 +1914,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0.3</v>
@@ -1944,7 +1944,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0.3</v>
@@ -1974,7 +1974,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0.3</v>
@@ -2004,7 +2004,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G52">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0.3</v>
@@ -2034,7 +2034,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G53">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0.3</v>
@@ -2064,7 +2064,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G54">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0.3</v>
@@ -2094,7 +2094,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G55">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0.3</v>
@@ -2124,7 +2124,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G56">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0.3</v>
@@ -2154,7 +2154,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G57">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0.3</v>
@@ -2184,7 +2184,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G58">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0.3</v>
@@ -2214,7 +2214,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G59">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0.3</v>
@@ -2244,7 +2244,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G60">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0.3</v>
@@ -2274,7 +2274,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G61">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0.3</v>
@@ -2304,7 +2304,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G62">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0.3</v>
@@ -2334,7 +2334,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G63">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0.3</v>
@@ -2364,7 +2364,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G64">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0.3</v>
@@ -2394,7 +2394,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G65">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0.3</v>
@@ -2424,7 +2424,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G66">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0.3</v>
@@ -2454,7 +2454,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G67">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0.3</v>
@@ -2484,7 +2484,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G68">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0.3</v>
@@ -2514,7 +2514,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0.3</v>
@@ -2544,7 +2544,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G70">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0.3</v>
@@ -2574,7 +2574,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G71">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0.3</v>
@@ -2604,7 +2604,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G72">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0.3</v>
@@ -2634,7 +2634,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G73">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0.3</v>
@@ -2664,7 +2664,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G74">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0.3</v>
@@ -2694,7 +2694,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G75">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0.3</v>
@@ -2724,7 +2724,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G76">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0.3</v>
@@ -2754,7 +2754,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G77">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0.3</v>
@@ -2784,7 +2784,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G78">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0.3</v>
@@ -2814,7 +2814,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G79">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0.3</v>
@@ -2844,7 +2844,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G80">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0.3</v>
@@ -2874,7 +2874,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G81">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0.3</v>
@@ -2904,7 +2904,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G82">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0.3</v>
@@ -2934,7 +2934,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G83">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0.3</v>
@@ -2964,7 +2964,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G84">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0.3</v>
@@ -2994,7 +2994,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G85">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0.3</v>
@@ -3024,7 +3024,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G86">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0.3</v>
@@ -3054,7 +3054,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G87">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0.3</v>
@@ -3084,7 +3084,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G88">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0.3</v>
@@ -3114,7 +3114,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G89">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0.3</v>
@@ -3144,7 +3144,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G90">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0.3</v>
@@ -3174,7 +3174,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G91">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0.3</v>
@@ -3204,7 +3204,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G92">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0.3</v>
@@ -3234,7 +3234,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G93">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0.3</v>
@@ -3264,7 +3264,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G94">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0.3</v>
@@ -3294,7 +3294,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G95">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0.3</v>
@@ -3324,7 +3324,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G96">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0.3</v>
@@ -3354,7 +3354,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G97">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0.3</v>
@@ -3384,7 +3384,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G98">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0.3</v>
@@ -3414,7 +3414,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G99">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0.3</v>
@@ -3444,7 +3444,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G100">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0.3</v>
@@ -3474,7 +3474,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G101">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0.3</v>
@@ -3504,7 +3504,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G102">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0.3</v>
@@ -3534,7 +3534,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G103">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0.3</v>
@@ -3564,7 +3564,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G104">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0.3</v>
@@ -3594,7 +3594,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G105">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0.3</v>
@@ -3624,7 +3624,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G106">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0.3</v>
@@ -3654,7 +3654,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G107">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0.3</v>
@@ -3684,7 +3684,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G108">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>0.3</v>
@@ -3714,7 +3714,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G109">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0.3</v>
@@ -3744,7 +3744,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G110">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0.3</v>
@@ -3774,7 +3774,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G111">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0.3</v>
@@ -3804,7 +3804,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G112">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0.3</v>
@@ -3834,7 +3834,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G113">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0.3</v>
@@ -3864,7 +3864,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G114">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0.3</v>
@@ -3894,7 +3894,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G115">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0.3</v>
@@ -3924,7 +3924,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G116">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0.3</v>
@@ -3954,7 +3954,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G117">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0.3</v>
@@ -3984,7 +3984,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G118">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0.3</v>
@@ -4014,7 +4014,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G119">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>0.3</v>
@@ -4044,7 +4044,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G120">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0.3</v>
@@ -4074,7 +4074,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G121">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0.3</v>
@@ -4104,7 +4104,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G122">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0.3</v>
@@ -4134,7 +4134,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G123">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>0.3</v>
@@ -4164,7 +4164,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G124">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>0.3</v>
@@ -4194,7 +4194,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G125">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>0.3</v>
@@ -4224,7 +4224,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G126">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0.3</v>
@@ -4254,7 +4254,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G127">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>0.3</v>
@@ -4284,7 +4284,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G128">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>0.3</v>
@@ -4314,7 +4314,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G129">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>0.3</v>
@@ -4344,7 +4344,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G130">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0.3</v>
@@ -4374,7 +4374,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G131">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0.3</v>
@@ -4404,7 +4404,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G132">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>0.3</v>
@@ -4434,7 +4434,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G133">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0.3</v>
@@ -4464,7 +4464,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G134">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0.3</v>
@@ -4494,7 +4494,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G135">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0.3</v>
@@ -4524,7 +4524,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G136">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0.3</v>
@@ -4554,7 +4554,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G137">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>0.3</v>
@@ -4584,7 +4584,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G138">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>0.3</v>
@@ -4614,7 +4614,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G139">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>0.3</v>
@@ -4644,7 +4644,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G140">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>0.3</v>
@@ -4674,7 +4674,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G141">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>0.3</v>
@@ -4704,7 +4704,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G142">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0.3</v>
@@ -4734,7 +4734,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G143">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0.3</v>
@@ -4764,7 +4764,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G144">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>0.3</v>
@@ -4794,7 +4794,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G145">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>0.3</v>
@@ -4824,7 +4824,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G146">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0.3</v>
@@ -4854,7 +4854,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G147">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>0.3</v>
@@ -4884,7 +4884,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G148">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0.3</v>
@@ -4914,7 +4914,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G149">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>0.3</v>
@@ -4944,7 +4944,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G150">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>0.3</v>
@@ -4974,7 +4974,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G151">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0.3</v>
@@ -5004,7 +5004,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G152">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>0.3</v>
@@ -5034,7 +5034,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G153">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>0.3</v>
@@ -5064,7 +5064,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G154">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>0.3</v>
@@ -5094,7 +5094,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G155">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>0.3</v>
@@ -5124,7 +5124,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G156">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0.3</v>
@@ -5154,7 +5154,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G157">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>0.3</v>
@@ -5184,7 +5184,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G158">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>0.3</v>
@@ -5214,7 +5214,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G159">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>0.3</v>
@@ -5244,7 +5244,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G160">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>0.3</v>
@@ -5274,7 +5274,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G161">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>0.3</v>
@@ -5304,7 +5304,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G162">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>0.3</v>
@@ -5334,7 +5334,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G163">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>0.3</v>
@@ -5364,7 +5364,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G164">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0.3</v>
@@ -5394,7 +5394,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G165">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>0.3</v>
@@ -5424,7 +5424,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G166">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>0.3</v>
@@ -5454,7 +5454,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G167">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>0.3</v>
@@ -5484,7 +5484,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G168">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>0.3</v>
@@ -5514,7 +5514,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G169">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0.3</v>
@@ -5544,7 +5544,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G170">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>0.3</v>
@@ -5574,7 +5574,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G171">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>0.3</v>
@@ -5604,7 +5604,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G172">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0.3</v>
@@ -5634,7 +5634,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G173">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>0.3</v>
@@ -5664,7 +5664,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G174">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0.3</v>
@@ -5694,7 +5694,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G175">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>0.3</v>
@@ -5724,7 +5724,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G176">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>0.3</v>
@@ -5754,7 +5754,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G177">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0.3</v>
@@ -5784,7 +5784,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G178">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>0.3</v>
@@ -5814,7 +5814,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G179">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>0.3</v>
@@ -5844,7 +5844,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G180">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>0.3</v>
@@ -5874,7 +5874,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G181">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0.3</v>
@@ -5904,7 +5904,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G182">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>0.3</v>
@@ -5934,7 +5934,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G183">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0.3</v>
@@ -5964,7 +5964,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G184">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>0.3</v>
@@ -5994,7 +5994,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G185">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>0.3</v>
@@ -6024,7 +6024,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G186">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0.3</v>
@@ -6054,7 +6054,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G187">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>0.3</v>
@@ -6084,7 +6084,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G188">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>0.3</v>
@@ -6114,7 +6114,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G189">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>0.3</v>
@@ -6144,7 +6144,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G190">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0.3</v>
@@ -6174,7 +6174,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G191">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>0.3</v>
@@ -6204,7 +6204,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G192">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>0.3</v>
@@ -6234,7 +6234,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G193">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>0.3</v>
@@ -6264,7 +6264,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G194">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0.3</v>
@@ -6294,7 +6294,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G195">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>0.3</v>
@@ -6324,7 +6324,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G196">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>0.3</v>
@@ -6354,7 +6354,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G197">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>0.3</v>
@@ -6384,7 +6384,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G198">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>0.3</v>
@@ -6414,7 +6414,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G199">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <v>0.3</v>
@@ -6444,7 +6444,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G200">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>0.3</v>
@@ -6474,7 +6474,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G201">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>0.3</v>
@@ -6504,7 +6504,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G202">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>0.3</v>
@@ -6534,7 +6534,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G203">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>0.3</v>
@@ -6564,7 +6564,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G204">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>0.3</v>
@@ -6594,7 +6594,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G205">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>0.3</v>
@@ -6624,7 +6624,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G206">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>0.3</v>
@@ -6654,7 +6654,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G207">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>0.3</v>
@@ -6684,7 +6684,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G208">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0.3</v>
@@ -6714,7 +6714,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G209">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>0.3</v>
@@ -6744,7 +6744,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G210">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>0.3</v>
@@ -6774,7 +6774,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G211">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0.3</v>
@@ -6804,7 +6804,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G212">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>0.3</v>
@@ -6834,7 +6834,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G213">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>0.3</v>
@@ -6864,7 +6864,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G214">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>0.3</v>
@@ -6894,7 +6894,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G215">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>0.3</v>
@@ -6924,7 +6924,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G216">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>0.3</v>
@@ -6954,7 +6954,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G217">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>0.3</v>
@@ -6984,7 +6984,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G218">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0.3</v>
@@ -7014,7 +7014,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G219">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>0.3</v>
@@ -7044,7 +7044,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G220">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0.3</v>
@@ -7074,7 +7074,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G221">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>0.3</v>
@@ -7104,7 +7104,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G222">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H222">
         <v>0.3</v>
@@ -7134,7 +7134,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G223">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>0.3</v>
@@ -7164,7 +7164,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G224">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>0.3</v>
@@ -7194,7 +7194,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G225">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>0.3</v>
@@ -7224,7 +7224,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G226">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>0.3</v>
@@ -7254,7 +7254,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G227">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H227">
         <v>0.3</v>
@@ -7284,7 +7284,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G228">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>0.3</v>
@@ -7314,7 +7314,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G229">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>0.3</v>
@@ -7344,7 +7344,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G230">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>0.3</v>
@@ -7374,7 +7374,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G231">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>0.3</v>
@@ -7404,7 +7404,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G232">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>0.3</v>
@@ -7434,7 +7434,7 @@
         <v>6.000000005000003E-2</v>
       </c>
       <c r="G233">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>0.3</v>
